--- a/media/data/tables/MCARiverBasin.xlsx
+++ b/media/data/tables/MCARiverBasin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atherashraf/PycharmProjects/DigitalArz/BalochistanWRP/media/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB76FB6-0BF4-A94A-91CF-FDC72185AB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF9D8DA-300A-A94B-8904-DDCDCA06F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14500" activeTab="4" xr2:uid="{3C41CF85-8A81-A544-B24F-E6BEED7DBD78}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14480" activeTab="4" xr2:uid="{3C41CF85-8A81-A544-B24F-E6BEED7DBD78}"/>
   </bookViews>
   <sheets>
     <sheet name="UC" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>D</t>
   </si>
@@ -281,12 +281,36 @@
   <si>
     <t>INDICATOR (watershed level)</t>
   </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>FAO</t>
+  </si>
+  <si>
+    <t>FEWSNET, MODIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition of rangelands </t>
+  </si>
+  <si>
+    <t>CHIRPS Satellite Data</t>
+  </si>
+  <si>
+    <t>FEWSNET</t>
+  </si>
+  <si>
+    <t>LANDSCAN 2020</t>
+  </si>
+  <si>
+    <t>FAO,SUPARCO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,6 +363,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,90 +446,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +1006,7 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -982,7 +1020,7 @@
       <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1038,7 +1076,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1055,7 +1093,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1102,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1082,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED5BB28-C0CD-6840-B8F0-D007019D73B6}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,206 +1134,238 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="E1" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C2" s="6">
         <v>0.6</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6" t="s">
+      <c r="E2" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C3" s="6">
         <v>0.2</v>
       </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="6" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C4" s="6">
         <v>0.2</v>
       </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="8" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C6" s="6">
         <v>0.7</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="6" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C7" s="6">
         <v>0.2</v>
       </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C8" s="6">
         <v>0.1</v>
       </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="8" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="10" t="s">
+      <c r="C10" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C11" s="10">
         <v>0.6</v>
       </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="18">
         <v>0.34</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0.33</v>
       </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.33</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D3:D13"/>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D13"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/media/data/tables/MCARiverBasin.xlsx
+++ b/media/data/tables/MCARiverBasin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atherashraf/PycharmProjects/DigitalArz/BalochistanWRP/media/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF9D8DA-300A-A94B-8904-DDCDCA06F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9184B-A6BE-2246-A5BA-6A476B4DF9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14480" activeTab="4" xr2:uid="{3C41CF85-8A81-A544-B24F-E6BEED7DBD78}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>CRITERIA</t>
   </si>
   <si>
-    <t>WEIGHTAGE/INFLUENCE</t>
-  </si>
-  <si>
     <t>Final Selection of Watersheds</t>
   </si>
   <si>
@@ -305,12 +302,15 @@
   <si>
     <t>FAO,SUPARCO</t>
   </si>
+  <si>
+    <t>INFLUENCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,29 +364,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B083"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,58 +382,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,88 +409,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,7 +1007,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1093,7 +1024,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1122,240 +1053,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED5BB28-C0CD-6840-B8F0-D007019D73B6}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="C2" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6">
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="23">
         <v>0.6</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="5" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="C13" s="24">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.34</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
